--- a/PattRecClasses-bays-V3/PattRecClasses/PhaseEstimation/PhaseEnumerationTools/DefualPhases.xlsx
+++ b/PattRecClasses-bays-V3/PattRecClasses/PhaseEstimation/PhaseEnumerationTools/DefualPhases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="12585"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -351,8 +352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,22 +530,22 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
